--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H2">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I2">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J2">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.36874933333333</v>
+        <v>17.77792333333333</v>
       </c>
       <c r="N2">
-        <v>46.10624799999999</v>
+        <v>53.33377</v>
       </c>
       <c r="O2">
-        <v>0.6852116076950574</v>
+        <v>0.7311095730214772</v>
       </c>
       <c r="P2">
-        <v>0.6852116076950576</v>
+        <v>0.7311095730214769</v>
       </c>
       <c r="Q2">
-        <v>0.8216696914408887</v>
+        <v>0.82656676746</v>
       </c>
       <c r="R2">
-        <v>7.395027222967999</v>
+        <v>7.43910090714</v>
       </c>
       <c r="S2">
-        <v>0.04946339384054229</v>
+        <v>0.04084801714094541</v>
       </c>
       <c r="T2">
-        <v>0.04946339384054232</v>
+        <v>0.0408480171409454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H3">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I3">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J3">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.606707</v>
       </c>
       <c r="O3">
-        <v>0.1873555612508425</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="P3">
-        <v>0.1873555612508426</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="Q3">
-        <v>0.2246669269374444</v>
+        <v>0.195378745086</v>
       </c>
       <c r="R3">
-        <v>2.022002342437</v>
+        <v>1.758408705774</v>
       </c>
       <c r="S3">
-        <v>0.0135246423298925</v>
+        <v>0.009655401889400965</v>
       </c>
       <c r="T3">
-        <v>0.01352464232989251</v>
+        <v>0.009655401889400964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H4">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I4">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J4">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3073846666666666</v>
+        <v>0.4642293333333333</v>
       </c>
       <c r="N4">
-        <v>0.9221539999999999</v>
+        <v>1.392688</v>
       </c>
       <c r="O4">
-        <v>0.01370466373413052</v>
+        <v>0.01909123485986712</v>
       </c>
       <c r="P4">
-        <v>0.01370466373413053</v>
+        <v>0.01909123485986711</v>
       </c>
       <c r="Q4">
-        <v>0.01643391135711111</v>
+        <v>0.021583878624</v>
       </c>
       <c r="R4">
-        <v>0.147905202214</v>
+        <v>0.194254907616</v>
       </c>
       <c r="S4">
-        <v>0.0009892990313076753</v>
+        <v>0.001066651453591017</v>
       </c>
       <c r="T4">
-        <v>0.0009892990313076758</v>
+        <v>0.001066651453591017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H5">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I5">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J5">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.292717666666667</v>
+        <v>1.856354333333333</v>
       </c>
       <c r="N5">
-        <v>6.878153</v>
+        <v>5.569063</v>
       </c>
       <c r="O5">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274414</v>
       </c>
       <c r="P5">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274413</v>
       </c>
       <c r="Q5">
-        <v>0.1225770930914445</v>
+        <v>0.086309338374</v>
       </c>
       <c r="R5">
-        <v>1.103193837823</v>
+        <v>0.776784045366</v>
       </c>
       <c r="S5">
-        <v>0.007378973685616482</v>
+        <v>0.004265312219312546</v>
       </c>
       <c r="T5">
-        <v>0.007378973685616485</v>
+        <v>0.004265312219312545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05346366666666667</v>
+        <v>0.046494</v>
       </c>
       <c r="H6">
-        <v>0.160391</v>
+        <v>0.139482</v>
       </c>
       <c r="I6">
-        <v>0.0721870343191197</v>
+        <v>0.05587126560541624</v>
       </c>
       <c r="J6">
-        <v>0.07218703431911971</v>
+        <v>0.05587126560541625</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2581143333333333</v>
+        <v>0.015617</v>
       </c>
       <c r="N6">
-        <v>0.774343</v>
+        <v>0.046851</v>
       </c>
       <c r="O6">
-        <v>0.01150795900671453</v>
+        <v>0.0006422425154949524</v>
       </c>
       <c r="P6">
-        <v>0.01150795900671454</v>
+        <v>0.0006422425154949522</v>
       </c>
       <c r="Q6">
-        <v>0.01379973867922222</v>
+        <v>0.0007260967979999999</v>
       </c>
       <c r="R6">
-        <v>0.124197648113</v>
+        <v>0.006534871182</v>
       </c>
       <c r="S6">
-        <v>0.0008307254317607247</v>
+        <v>3.588290216630914E-05</v>
       </c>
       <c r="T6">
-        <v>0.000830725431760725</v>
+        <v>3.588290216630913E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.768273</v>
       </c>
       <c r="I7">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J7">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.36874933333333</v>
+        <v>17.77792333333333</v>
       </c>
       <c r="N7">
-        <v>46.10624799999999</v>
+        <v>53.33377</v>
       </c>
       <c r="O7">
-        <v>0.6852116076950574</v>
+        <v>0.7311095730214772</v>
       </c>
       <c r="P7">
-        <v>0.6852116076950576</v>
+        <v>0.7311095730214769</v>
       </c>
       <c r="Q7">
-        <v>9.05871482996711</v>
+        <v>10.47874060880111</v>
       </c>
       <c r="R7">
-        <v>81.52843346970398</v>
+        <v>94.30866547921001</v>
       </c>
       <c r="S7">
-        <v>0.5453222675623771</v>
+        <v>0.5178477926461548</v>
       </c>
       <c r="T7">
-        <v>0.5453222675623774</v>
+        <v>0.5178477926461547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.768273</v>
       </c>
       <c r="I8">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J8">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>12.606707</v>
       </c>
       <c r="O8">
-        <v>0.1873555612508425</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="P8">
-        <v>0.1873555612508426</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="Q8">
         <v>2.476899956334556</v>
@@ -948,10 +948,10 @@
         <v>22.292099607011</v>
       </c>
       <c r="S8">
-        <v>0.1491059963876153</v>
+        <v>0.1224056614127752</v>
       </c>
       <c r="T8">
-        <v>0.1491059963876153</v>
+        <v>0.1224056614127752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>1.768273</v>
       </c>
       <c r="I9">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J9">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3073846666666666</v>
+        <v>0.4642293333333333</v>
       </c>
       <c r="N9">
-        <v>0.9221539999999999</v>
+        <v>1.392688</v>
       </c>
       <c r="O9">
-        <v>0.01370466373413052</v>
+        <v>0.01909123485986712</v>
       </c>
       <c r="P9">
-        <v>0.01370466373413053</v>
+        <v>0.01909123485986711</v>
       </c>
       <c r="Q9">
-        <v>0.1811800022268889</v>
+        <v>0.2736280653137778</v>
       </c>
       <c r="R9">
-        <v>1.630620020042</v>
+        <v>2.462652587824</v>
       </c>
       <c r="S9">
-        <v>0.01090678882223764</v>
+        <v>0.01352239690996508</v>
       </c>
       <c r="T9">
-        <v>0.01090678882223764</v>
+        <v>0.01352239690996507</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.768273</v>
       </c>
       <c r="I10">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J10">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.292717666666667</v>
+        <v>1.856354333333333</v>
       </c>
       <c r="N10">
-        <v>6.878153</v>
+        <v>5.569063</v>
       </c>
       <c r="O10">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274414</v>
       </c>
       <c r="P10">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274413</v>
       </c>
       <c r="Q10">
-        <v>1.351383582196556</v>
+        <v>1.094180415355444</v>
       </c>
       <c r="R10">
-        <v>12.162452239769</v>
+        <v>9.847623738198999</v>
       </c>
       <c r="S10">
-        <v>0.08135144700130377</v>
+        <v>0.0540731881818475</v>
       </c>
       <c r="T10">
-        <v>0.0813514470013038</v>
+        <v>0.05407318818184749</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>1.768273</v>
       </c>
       <c r="I11">
-        <v>0.7958450520077357</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="J11">
-        <v>0.7958450520077358</v>
+        <v>0.7083039420562237</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2581143333333333</v>
+        <v>0.015617</v>
       </c>
       <c r="N11">
-        <v>0.774343</v>
+        <v>0.046851</v>
       </c>
       <c r="O11">
-        <v>0.01150795900671453</v>
+        <v>0.0006422425154949524</v>
       </c>
       <c r="P11">
-        <v>0.01150795900671454</v>
+        <v>0.0006422425154949522</v>
       </c>
       <c r="Q11">
-        <v>0.1521388688487778</v>
+        <v>0.009205039813666665</v>
       </c>
       <c r="R11">
-        <v>1.369249819639</v>
+        <v>0.082845358323</v>
       </c>
       <c r="S11">
-        <v>0.009158552234201619</v>
+        <v>0.0004549029054811801</v>
       </c>
       <c r="T11">
-        <v>0.00915855223420162</v>
+        <v>0.00045490290548118</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H12">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I12">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J12">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.36874933333333</v>
+        <v>17.77792333333333</v>
       </c>
       <c r="N12">
-        <v>46.10624799999999</v>
+        <v>53.33377</v>
       </c>
       <c r="O12">
-        <v>0.6852116076950574</v>
+        <v>0.7311095730214772</v>
       </c>
       <c r="P12">
-        <v>0.6852116076950576</v>
+        <v>0.7311095730214769</v>
       </c>
       <c r="Q12">
-        <v>0.2889171187173333</v>
+        <v>2.215692214905555</v>
       </c>
       <c r="R12">
-        <v>2.600254068456</v>
+        <v>19.94122993415</v>
       </c>
       <c r="S12">
-        <v>0.01739241617313355</v>
+        <v>0.1094970631975006</v>
       </c>
       <c r="T12">
-        <v>0.01739241617313356</v>
+        <v>0.1094970631975006</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H13">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I13">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J13">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.606707</v>
       </c>
       <c r="O13">
-        <v>0.1873555612508425</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="P13">
-        <v>0.1873555612508426</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="Q13">
-        <v>0.07899782829766666</v>
+        <v>0.5237316348627777</v>
       </c>
       <c r="R13">
-        <v>0.7109804546790001</v>
+        <v>4.713584713765</v>
       </c>
       <c r="S13">
-        <v>0.004755561430996424</v>
+        <v>0.02588223920962972</v>
       </c>
       <c r="T13">
-        <v>0.004755561430996426</v>
+        <v>0.02588223920962972</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H14">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I14">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J14">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3073846666666666</v>
+        <v>0.4642293333333333</v>
       </c>
       <c r="N14">
-        <v>0.9221539999999999</v>
+        <v>1.392688</v>
       </c>
       <c r="O14">
-        <v>0.01370466373413052</v>
+        <v>0.01909123485986712</v>
       </c>
       <c r="P14">
-        <v>0.01370466373413053</v>
+        <v>0.01909123485986711</v>
       </c>
       <c r="Q14">
-        <v>0.005778524348666666</v>
+        <v>0.05785767552888888</v>
       </c>
       <c r="R14">
-        <v>0.052006719138</v>
+        <v>0.52071907976</v>
       </c>
       <c r="S14">
-        <v>0.000347859278068339</v>
+        <v>0.002859262451358693</v>
       </c>
       <c r="T14">
-        <v>0.0003478592780683392</v>
+        <v>0.002859262451358693</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H15">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I15">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J15">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.292717666666667</v>
+        <v>1.856354333333333</v>
       </c>
       <c r="N15">
-        <v>6.878153</v>
+        <v>5.569063</v>
       </c>
       <c r="O15">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274414</v>
       </c>
       <c r="P15">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274413</v>
       </c>
       <c r="Q15">
-        <v>0.04310079941566667</v>
+        <v>0.2313605344872222</v>
       </c>
       <c r="R15">
-        <v>0.387907194741</v>
+        <v>2.082244810385</v>
       </c>
       <c r="S15">
-        <v>0.002594609291965963</v>
+        <v>0.01143358219870567</v>
       </c>
       <c r="T15">
-        <v>0.002594609291965964</v>
+        <v>0.01143358219870567</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.018799</v>
+        <v>0.1246316666666667</v>
       </c>
       <c r="H16">
-        <v>0.056397</v>
+        <v>0.373895</v>
       </c>
       <c r="I16">
-        <v>0.02538254749016711</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="J16">
-        <v>0.02538254749016712</v>
+        <v>0.1497683346491813</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.2581143333333333</v>
+        <v>0.015617</v>
       </c>
       <c r="N16">
-        <v>0.774343</v>
+        <v>0.046851</v>
       </c>
       <c r="O16">
-        <v>0.01150795900671453</v>
+        <v>0.0006422425154949524</v>
       </c>
       <c r="P16">
-        <v>0.01150795900671454</v>
+        <v>0.0006422425154949522</v>
       </c>
       <c r="Q16">
-        <v>0.004852291352333333</v>
+        <v>0.001946372738333333</v>
       </c>
       <c r="R16">
-        <v>0.04367062217100001</v>
+        <v>0.017517354645</v>
       </c>
       <c r="S16">
-        <v>0.000292101316002828</v>
+        <v>9.618759198658002E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002921013160028281</v>
+        <v>9.618759198658E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H17">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I17">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J17">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.36874933333333</v>
+        <v>17.77792333333333</v>
       </c>
       <c r="N17">
-        <v>46.10624799999999</v>
+        <v>53.33377</v>
       </c>
       <c r="O17">
-        <v>0.6852116076950574</v>
+        <v>0.7311095730214772</v>
       </c>
       <c r="P17">
-        <v>0.6852116076950576</v>
+        <v>0.7311095730214769</v>
       </c>
       <c r="Q17">
-        <v>0.9500755921208888</v>
+        <v>1.058598296832222</v>
       </c>
       <c r="R17">
-        <v>8.550680329087999</v>
+        <v>9.527384671489999</v>
       </c>
       <c r="S17">
-        <v>0.05719325378663149</v>
+        <v>0.05231475916610792</v>
       </c>
       <c r="T17">
-        <v>0.05719325378663152</v>
+        <v>0.05231475916610791</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H18">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I18">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J18">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.606707</v>
       </c>
       <c r="O18">
-        <v>0.1873555612508425</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="P18">
-        <v>0.1873555612508426</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="Q18">
-        <v>0.2597766059324444</v>
+        <v>0.2502249242621111</v>
       </c>
       <c r="R18">
-        <v>2.337989453392</v>
+        <v>2.252024318359</v>
       </c>
       <c r="S18">
-        <v>0.01563819708046301</v>
+        <v>0.01236583951561434</v>
       </c>
       <c r="T18">
-        <v>0.01563819708046302</v>
+        <v>0.01236583951561434</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H19">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I19">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J19">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.3073846666666666</v>
+        <v>0.4642293333333333</v>
       </c>
       <c r="N19">
-        <v>0.9221539999999999</v>
+        <v>1.392688</v>
       </c>
       <c r="O19">
-        <v>0.01370466373413052</v>
+        <v>0.01909123485986712</v>
       </c>
       <c r="P19">
-        <v>0.01370466373413053</v>
+        <v>0.01909123485986711</v>
       </c>
       <c r="Q19">
-        <v>0.01900211024711111</v>
+        <v>0.02764284513955555</v>
       </c>
       <c r="R19">
-        <v>0.171018992224</v>
+        <v>0.248785606256</v>
       </c>
       <c r="S19">
-        <v>0.001143901098878342</v>
+        <v>0.001366078889857749</v>
       </c>
       <c r="T19">
-        <v>0.001143901098878343</v>
+        <v>0.001366078889857749</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H20">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I20">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J20">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.292717666666667</v>
+        <v>1.856354333333333</v>
       </c>
       <c r="N20">
-        <v>6.878153</v>
+        <v>5.569063</v>
       </c>
       <c r="O20">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274414</v>
       </c>
       <c r="P20">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274413</v>
       </c>
       <c r="Q20">
-        <v>0.1417327491964445</v>
+        <v>0.1105378563478889</v>
       </c>
       <c r="R20">
-        <v>1.275594742768</v>
+        <v>0.9948407071309999</v>
       </c>
       <c r="S20">
-        <v>0.008532118035548692</v>
+        <v>0.005462658829966126</v>
       </c>
       <c r="T20">
-        <v>0.008532118035548696</v>
+        <v>0.005462658829966126</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.06181866666666667</v>
+        <v>0.05954566666666666</v>
       </c>
       <c r="H21">
-        <v>0.185456</v>
+        <v>0.178637</v>
       </c>
       <c r="I21">
-        <v>0.08346801651393571</v>
+        <v>0.07155529225243931</v>
       </c>
       <c r="J21">
-        <v>0.08346801651393573</v>
+        <v>0.07155529225243933</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.2581143333333333</v>
+        <v>0.015617</v>
       </c>
       <c r="N21">
-        <v>0.774343</v>
+        <v>0.046851</v>
       </c>
       <c r="O21">
-        <v>0.01150795900671453</v>
+        <v>0.0006422425154949524</v>
       </c>
       <c r="P21">
-        <v>0.01150795900671454</v>
+        <v>0.0006422425154949522</v>
       </c>
       <c r="Q21">
-        <v>0.01595628393422222</v>
+        <v>0.0009299246763333332</v>
       </c>
       <c r="R21">
-        <v>0.143606555408</v>
+        <v>0.008369322086999999</v>
       </c>
       <c r="S21">
-        <v>0.0009605465124141438</v>
+        <v>4.595585089318311E-05</v>
       </c>
       <c r="T21">
-        <v>0.0009605465124141443</v>
+        <v>4.59558508931831E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H22">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I22">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J22">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.36874933333333</v>
+        <v>17.77792333333333</v>
       </c>
       <c r="N22">
-        <v>46.10624799999999</v>
+        <v>53.33377</v>
       </c>
       <c r="O22">
-        <v>0.6852116076950574</v>
+        <v>0.7311095730214772</v>
       </c>
       <c r="P22">
-        <v>0.6852116076950576</v>
+        <v>0.7311095730214769</v>
       </c>
       <c r="Q22">
-        <v>0.2631334802524444</v>
+        <v>0.2145321268377778</v>
       </c>
       <c r="R22">
-        <v>2.368201322272</v>
+        <v>1.93078914154</v>
       </c>
       <c r="S22">
-        <v>0.01584027633237286</v>
+        <v>0.01060194087076831</v>
       </c>
       <c r="T22">
-        <v>0.01584027633237286</v>
+        <v>0.01060194087076831</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H23">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I23">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J23">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>12.606707</v>
       </c>
       <c r="O23">
-        <v>0.1873555612508425</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="P23">
-        <v>0.1873555612508426</v>
+        <v>0.1728151633004167</v>
       </c>
       <c r="Q23">
-        <v>0.07194787759422223</v>
+        <v>0.05070977853488889</v>
       </c>
       <c r="R23">
-        <v>0.647530898348</v>
+        <v>0.456388006814</v>
       </c>
       <c r="S23">
-        <v>0.004331164021875283</v>
+        <v>0.002506021272996471</v>
       </c>
       <c r="T23">
-        <v>0.004331164021875285</v>
+        <v>0.00250602127299647</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H24">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I24">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J24">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.3073846666666666</v>
+        <v>0.4642293333333333</v>
       </c>
       <c r="N24">
-        <v>0.9221539999999999</v>
+        <v>1.392688</v>
       </c>
       <c r="O24">
-        <v>0.01370466373413052</v>
+        <v>0.01909123485986712</v>
       </c>
       <c r="P24">
-        <v>0.01370466373413053</v>
+        <v>0.01909123485986711</v>
       </c>
       <c r="Q24">
-        <v>0.005262835339555556</v>
+        <v>0.005602010108444444</v>
       </c>
       <c r="R24">
-        <v>0.04736551805600001</v>
+        <v>0.05041809097599999</v>
       </c>
       <c r="S24">
-        <v>0.0003168155036385298</v>
+        <v>0.0002768451550945785</v>
       </c>
       <c r="T24">
-        <v>0.0003168155036385299</v>
+        <v>0.0002768451550945785</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H25">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I25">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J25">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.292717666666667</v>
+        <v>1.856354333333333</v>
       </c>
       <c r="N25">
-        <v>6.878153</v>
+        <v>5.569063</v>
       </c>
       <c r="O25">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274414</v>
       </c>
       <c r="P25">
-        <v>0.1022202083132547</v>
+        <v>0.07634178630274413</v>
       </c>
       <c r="Q25">
-        <v>0.03925438341022223</v>
+        <v>0.02240124652511111</v>
       </c>
       <c r="R25">
-        <v>0.3532894506920001</v>
+        <v>0.201611218726</v>
       </c>
       <c r="S25">
-        <v>0.002363060298819791</v>
+        <v>0.001107044872912295</v>
       </c>
       <c r="T25">
-        <v>0.002363060298819791</v>
+        <v>0.001107044872912295</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.01712133333333334</v>
+        <v>0.01206733333333333</v>
       </c>
       <c r="H26">
-        <v>0.05136400000000001</v>
+        <v>0.036202</v>
       </c>
       <c r="I26">
-        <v>0.02311734966904168</v>
+        <v>0.01450116543673935</v>
       </c>
       <c r="J26">
-        <v>0.02311734966904169</v>
+        <v>0.01450116543673936</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.2581143333333333</v>
+        <v>0.015617</v>
       </c>
       <c r="N26">
-        <v>0.774343</v>
+        <v>0.046851</v>
       </c>
       <c r="O26">
-        <v>0.01150795900671453</v>
+        <v>0.0006422425154949524</v>
       </c>
       <c r="P26">
-        <v>0.01150795900671454</v>
+        <v>0.0006422425154949522</v>
       </c>
       <c r="Q26">
-        <v>0.004419261539111112</v>
+        <v>0.0001884555446666666</v>
       </c>
       <c r="R26">
-        <v>0.039773353852</v>
+        <v>0.001696099902</v>
       </c>
       <c r="S26">
-        <v>0.0002660335123352175</v>
+        <v>9.313264967699944E-06</v>
       </c>
       <c r="T26">
-        <v>0.0002660335123352175</v>
+        <v>9.313264967699941E-06</v>
       </c>
     </row>
   </sheetData>
